--- a/Data/impfungen_korrelation.xlsx
+++ b/Data/impfungen_korrelation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_november2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{064CEC9F-0755-4D41-A447-FCCB5ED9EDDA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC1555B-2C65-49B5-B37C-DB8B4142B812}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +412,7 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>64.650000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -420,7 +420,7 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>58.2</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,7 +428,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="B4">
-        <v>53.7</v>
+        <v>54.11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,7 +436,7 @@
         <v>58.7</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>67.540000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,7 +444,7 @@
         <v>69.099999999999994</v>
       </c>
       <c r="B6">
-        <v>68.5</v>
+        <v>69.11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
         <v>60.1</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>59.9</v>
       </c>
       <c r="B8">
-        <v>65.900000000000006</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -468,7 +468,7 @@
         <v>69.3</v>
       </c>
       <c r="B9">
-        <v>65.5</v>
+        <v>66.13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,7 +476,7 @@
         <v>49.1</v>
       </c>
       <c r="B10">
-        <v>59.4</v>
+        <v>60.15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
         <v>57.6</v>
       </c>
       <c r="B11">
-        <v>65.900000000000006</v>
+        <v>66.39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -492,7 +492,7 @@
         <v>59.4</v>
       </c>
       <c r="B12">
-        <v>59.9</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>57.4</v>
       </c>
       <c r="B13">
-        <v>63.6</v>
+        <v>64.23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>66.599999999999994</v>
       </c>
       <c r="B14">
-        <v>62.5</v>
+        <v>63.46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>48.6</v>
       </c>
       <c r="B15">
-        <v>63.7</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -524,7 +524,7 @@
         <v>43.3</v>
       </c>
       <c r="B16">
-        <v>57.1</v>
+        <v>57.68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>57.6</v>
       </c>
       <c r="B17">
-        <v>65.2</v>
+        <v>65.819999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>40.9</v>
       </c>
       <c r="B18">
-        <v>56.9</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +548,7 @@
         <v>59.1</v>
       </c>
       <c r="B19">
-        <v>65.400000000000006</v>
+        <v>66.03</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
         <v>51.1</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>59.79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>69.2</v>
       </c>
       <c r="B21">
-        <v>68.5</v>
+        <v>68.89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
         <v>49.9</v>
       </c>
       <c r="B22">
-        <v>58.5</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>45.1</v>
       </c>
       <c r="B23">
-        <v>62.2</v>
+        <v>62.79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,7 +588,7 @@
         <v>70.2</v>
       </c>
       <c r="B24">
-        <v>66.8</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
         <v>56.9</v>
       </c>
       <c r="B25">
-        <v>62.3</v>
+        <v>62.74</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -604,7 +604,7 @@
         <v>57.7</v>
       </c>
       <c r="B26">
-        <v>65.7</v>
+        <v>66.14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="B27">
-        <v>67.3</v>
+        <v>67.84</v>
       </c>
     </row>
   </sheetData>

--- a/Data/impfungen_korrelation.xlsx
+++ b/Data/impfungen_korrelation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_november2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC1555B-2C65-49B5-B37C-DB8B4142B812}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE6C6FFE-CFF1-43B0-AB54-A615DAE06F54}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +409,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>58</v>
+        <v>62.6</v>
       </c>
       <c r="B2">
         <v>64.650000000000006</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>47</v>
+        <v>50.3</v>
       </c>
       <c r="B3">
         <v>58.65</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>39.200000000000003</v>
+        <v>44.2</v>
       </c>
       <c r="B4">
         <v>54.11</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>58.7</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>67.540000000000006</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>69.099999999999994</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="B6">
         <v>69.11</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>60.1</v>
+        <v>62.5</v>
       </c>
       <c r="B7">
         <v>66.64</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>59.9</v>
+        <v>61.6</v>
       </c>
       <c r="B8">
         <v>66.400000000000006</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>69.3</v>
+        <v>62.9</v>
       </c>
       <c r="B9">
         <v>66.13</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>49.1</v>
+        <v>54.2</v>
       </c>
       <c r="B10">
         <v>60.15</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>57.6</v>
+        <v>60.9</v>
       </c>
       <c r="B11">
         <v>66.39</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>59.4</v>
+        <v>54.7</v>
       </c>
       <c r="B12">
         <v>60.52</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>57.4</v>
+        <v>62.3</v>
       </c>
       <c r="B13">
         <v>64.23</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>66.599999999999994</v>
+        <v>64.3</v>
       </c>
       <c r="B14">
         <v>63.46</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>48.6</v>
+        <v>59.1</v>
       </c>
       <c r="B15">
         <v>64.25</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>43.3</v>
+        <v>51.1</v>
       </c>
       <c r="B16">
         <v>57.68</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>57.6</v>
+        <v>59.9</v>
       </c>
       <c r="B17">
         <v>65.819999999999993</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>40.9</v>
+        <v>48.6</v>
       </c>
       <c r="B18">
         <v>57.3</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>59.1</v>
+        <v>63.4</v>
       </c>
       <c r="B19">
         <v>66.03</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>51.1</v>
+        <v>54.7</v>
       </c>
       <c r="B20">
         <v>59.79</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>69.2</v>
+        <v>65.3</v>
       </c>
       <c r="B21">
         <v>68.89</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>49.9</v>
+        <v>54.7</v>
       </c>
       <c r="B22">
         <v>59.1</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>45.1</v>
+        <v>56.3</v>
       </c>
       <c r="B23">
         <v>62.79</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>70.2</v>
+        <v>63.6</v>
       </c>
       <c r="B24">
         <v>67.400000000000006</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>56.9</v>
+        <v>58.5</v>
       </c>
       <c r="B25">
         <v>62.74</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>57.7</v>
+        <v>63.6</v>
       </c>
       <c r="B26">
         <v>66.14</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>64.400000000000006</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="B27">
         <v>67.84</v>

--- a/Data/impfungen_korrelation.xlsx
+++ b/Data/impfungen_korrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_november2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE6C6FFE-CFF1-43B0-AB54-A615DAE06F54}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F90BDE8B-DEEA-459E-A872-38A0A9BA4904}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8BF834-ACC5-4D01-8152-8A3FBF4B17E7}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>65.599999999999994</v>
+        <v>65.7</v>
       </c>
       <c r="B27">
         <v>67.84</v>
